--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2277.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2277.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.147497330379331</v>
+        <v>1.212283611297607</v>
       </c>
       <c r="B1">
-        <v>2.7414934119127</v>
+        <v>2.576965093612671</v>
       </c>
       <c r="C1">
-        <v>4.709118394907398</v>
+        <v>4.307102680206299</v>
       </c>
       <c r="D1">
-        <v>3.090553205989122</v>
+        <v>2.036807775497437</v>
       </c>
       <c r="E1">
-        <v>1.22576730892482</v>
+        <v>1.167977809906006</v>
       </c>
     </row>
   </sheetData>
